--- a/RESULTADOS/Pasta1.xlsx
+++ b/RESULTADOS/Pasta1.xlsx
@@ -2,19 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Internet\Downloads\ProjetoMetodosOrdena\RESULTADOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emm\Documents\ProjetoMetodosOrdena\RESULTADOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11490" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Plan1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>Quantidade</t>
   </si>
@@ -34,18 +35,36 @@
   <si>
     <t>Merge</t>
   </si>
+  <si>
+    <t>Qutdade</t>
+  </si>
+  <si>
+    <t>buble</t>
+  </si>
+  <si>
+    <t>insertion</t>
+  </si>
+  <si>
+    <t>selection</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -56,7 +75,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -64,12 +83,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -88,7 +129,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -134,7 +175,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14380314960629922"/>
+          <c:y val="0.19486111111111112"/>
+          <c:w val="0.80153018372703411"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -483,7 +534,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-63B7-4E35-A5EA-39D5E26DD497}"/>
             </c:ext>
@@ -497,11 +548,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="520849919"/>
-        <c:axId val="520850335"/>
+        <c:axId val="239027792"/>
+        <c:axId val="239028184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="520849919"/>
+        <c:axId val="239027792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -558,12 +609,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520850335"/>
+        <c:crossAx val="239028184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="520850335"/>
+        <c:axId val="239028184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -620,7 +671,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520849919"/>
+        <c:crossAx val="239027792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -670,7 +721,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -1065,7 +1116,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BD9E-4598-89D8-1A9B31E82C35}"/>
             </c:ext>
@@ -1079,11 +1130,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="606402095"/>
-        <c:axId val="606407087"/>
+        <c:axId val="240457768"/>
+        <c:axId val="240458160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="606402095"/>
+        <c:axId val="240457768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1140,12 +1191,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="606407087"/>
+        <c:crossAx val="240458160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="606407087"/>
+        <c:axId val="240458160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1202,7 +1253,1036 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="606402095"/>
+        <c:crossAx val="240457768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$S$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>buble</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Planilha1!$P$5:$P$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Planilha1!$S$5:$S$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>16475</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35490</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45362</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62228</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>86940</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99547</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>127245</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>144641</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>154024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>174832</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>185401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="380301320"/>
+        <c:axId val="380300144"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="380301320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="380300144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="380300144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="380301320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$R$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>selection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Planilha1!$P$5:$P$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Planilha1!$R$5:$R$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>446</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>955</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1378</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2131</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3012</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4601</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5962</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6849</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8892</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10629</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="411578056"/>
+        <c:axId val="411576880"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="411578056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="411576880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="411576880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="411578056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$Q$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>insertion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Planilha1!$P$5:$P$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Planilha1!$Q$5:$Q$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>31.844515999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78.312541999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>156.74777399999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>310.86259899999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>486.61622499999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>683.36580900000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>930.01455899999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1287.3227919999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1696.413002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2105.297016</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2918.9598069999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="420345272"/>
+        <c:axId val="420344096"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="420345272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420344096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="420344096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420345272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1331,6 +2411,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1848,6 +3048,1554 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2420,6 +5168,96 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Gráfico 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2691,577 +5529,1748 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:E54"/>
+  <dimension ref="C4:V54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E4" activeCellId="1" sqref="C4:C54 E4:E54"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1258100</v>
+      </c>
+      <c r="E5" s="1">
+        <v>11200</v>
+      </c>
+      <c r="P5" s="3">
+        <v>10000</v>
+      </c>
+      <c r="Q5" s="3">
+        <f>V5*10^-6</f>
+        <v>31.844515999999999</v>
+      </c>
+      <c r="R5" s="3">
+        <v>109</v>
+      </c>
+      <c r="S5" s="1">
+        <v>16475</v>
+      </c>
+      <c r="V5" s="2">
+        <v>31844516</v>
+      </c>
+    </row>
+    <row r="6" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C6" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>581300</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2400</v>
+      </c>
+      <c r="P6" s="3">
+        <v>20000</v>
+      </c>
+      <c r="Q6" s="3">
+        <f t="shared" ref="Q6:Q15" si="0">V6*10^-6</f>
+        <v>78.312541999999993</v>
+      </c>
+      <c r="R6" s="3">
+        <v>446</v>
+      </c>
+      <c r="S6" s="1">
+        <v>35490</v>
+      </c>
+      <c r="V6" s="2">
+        <v>78312542</v>
+      </c>
+    </row>
+    <row r="7" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C7" s="1">
+        <v>30000</v>
+      </c>
+      <c r="D7" s="1">
+        <v>556100</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2300</v>
+      </c>
+      <c r="P7" s="3">
+        <v>30000</v>
+      </c>
+      <c r="Q7" s="3">
+        <f t="shared" si="0"/>
+        <v>156.74777399999999</v>
+      </c>
+      <c r="R7" s="3">
+        <v>955</v>
+      </c>
+      <c r="S7" s="1">
+        <v>45362</v>
+      </c>
+      <c r="V7" s="2">
+        <v>156747774</v>
+      </c>
+    </row>
+    <row r="8" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C8" s="1">
+        <v>40000</v>
+      </c>
+      <c r="D8" s="1">
+        <v>533700</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2400</v>
+      </c>
+      <c r="P8" s="3">
+        <v>40000</v>
+      </c>
+      <c r="Q8" s="3">
+        <f t="shared" si="0"/>
+        <v>310.86259899999999</v>
+      </c>
+      <c r="R8" s="3">
+        <v>1378</v>
+      </c>
+      <c r="S8" s="1">
+        <v>62228</v>
+      </c>
+      <c r="V8" s="2">
+        <v>310862599</v>
+      </c>
+    </row>
+    <row r="9" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C9" s="1">
+        <v>50000</v>
+      </c>
+      <c r="D9" s="1">
+        <v>541200</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2200</v>
+      </c>
+      <c r="P9" s="3">
+        <v>50000</v>
+      </c>
+      <c r="Q9" s="3">
+        <f t="shared" si="0"/>
+        <v>486.61622499999999</v>
+      </c>
+      <c r="R9" s="3">
+        <v>2131</v>
+      </c>
+      <c r="S9" s="1">
+        <v>86940</v>
+      </c>
+      <c r="V9" s="2">
+        <v>486616225</v>
+      </c>
+    </row>
+    <row r="10" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C10" s="1">
+        <v>60000</v>
+      </c>
+      <c r="D10" s="1">
+        <v>568000</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2100</v>
+      </c>
+      <c r="P10" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Q10" s="3">
+        <f t="shared" si="0"/>
+        <v>683.36580900000001</v>
+      </c>
+      <c r="R10" s="3">
+        <v>3012</v>
+      </c>
+      <c r="S10" s="1">
+        <v>99547</v>
+      </c>
+      <c r="V10" s="2">
+        <v>683365809</v>
+      </c>
+    </row>
+    <row r="11" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C11" s="1">
+        <v>70000</v>
+      </c>
+      <c r="D11" s="1">
+        <v>556300</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2200</v>
+      </c>
+      <c r="P11" s="3">
+        <v>70000</v>
+      </c>
+      <c r="Q11" s="3">
+        <f t="shared" si="0"/>
+        <v>930.01455899999996</v>
+      </c>
+      <c r="R11" s="3">
+        <v>4601</v>
+      </c>
+      <c r="S11" s="1">
+        <v>127245</v>
+      </c>
+      <c r="V11" s="2">
+        <v>930014559</v>
+      </c>
+    </row>
+    <row r="12" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C12" s="1">
+        <v>80000</v>
+      </c>
+      <c r="D12" s="1">
+        <v>539000</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2400</v>
+      </c>
+      <c r="P12" s="3">
+        <v>80000</v>
+      </c>
+      <c r="Q12" s="3">
+        <f t="shared" si="0"/>
+        <v>1287.3227919999999</v>
+      </c>
+      <c r="R12" s="3">
+        <v>5962</v>
+      </c>
+      <c r="S12" s="1">
+        <v>144641</v>
+      </c>
+      <c r="V12" s="2">
+        <v>1287322792</v>
+      </c>
+    </row>
+    <row r="13" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C13" s="1">
+        <v>90000</v>
+      </c>
+      <c r="D13" s="1">
+        <v>538700</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2400</v>
+      </c>
+      <c r="P13" s="3">
+        <v>90000</v>
+      </c>
+      <c r="Q13" s="3">
+        <f t="shared" si="0"/>
+        <v>1696.413002</v>
+      </c>
+      <c r="R13" s="3">
+        <v>6849</v>
+      </c>
+      <c r="S13" s="1">
+        <v>154024</v>
+      </c>
+      <c r="V13" s="2">
+        <v>1696413002</v>
+      </c>
+    </row>
+    <row r="14" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C14" s="1">
+        <v>100000</v>
+      </c>
+      <c r="D14" s="1">
+        <v>508100</v>
+      </c>
+      <c r="E14" s="1">
+        <v>3600</v>
+      </c>
+      <c r="P14" s="3">
+        <v>100000</v>
+      </c>
+      <c r="Q14" s="3">
+        <f t="shared" si="0"/>
+        <v>2105.297016</v>
+      </c>
+      <c r="R14" s="3">
+        <v>8892</v>
+      </c>
+      <c r="S14" s="1">
+        <v>174832</v>
+      </c>
+      <c r="V14" s="2">
+        <v>2105297016</v>
+      </c>
+    </row>
+    <row r="15" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C15" s="1">
+        <v>110000</v>
+      </c>
+      <c r="D15" s="1">
+        <v>530900</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2600</v>
+      </c>
+      <c r="P15" s="3">
+        <v>110000</v>
+      </c>
+      <c r="Q15" s="3">
+        <f t="shared" si="0"/>
+        <v>2918.9598069999997</v>
+      </c>
+      <c r="R15" s="3">
+        <v>10629</v>
+      </c>
+      <c r="S15" s="1">
+        <v>185401</v>
+      </c>
+      <c r="V15" s="2">
+        <v>2918959807</v>
+      </c>
+    </row>
+    <row r="16" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C16" s="1">
+        <v>120000</v>
+      </c>
+      <c r="D16" s="1">
+        <v>483200</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="1">
+        <v>130000</v>
+      </c>
+      <c r="D17" s="1">
+        <v>623000</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="1">
+        <v>140000</v>
+      </c>
+      <c r="D18" s="1">
+        <v>554400</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="1">
+        <v>150000</v>
+      </c>
+      <c r="D19" s="1">
+        <v>572600</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="1">
+        <v>160000</v>
+      </c>
+      <c r="D20" s="1">
+        <v>529100</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="1">
+        <v>170000</v>
+      </c>
+      <c r="D21" s="1">
+        <v>557100</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="1">
+        <v>180000</v>
+      </c>
+      <c r="D22" s="1">
+        <v>533300</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="1">
+        <v>190000</v>
+      </c>
+      <c r="D23" s="1">
+        <v>552500</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="1">
+        <v>200000</v>
+      </c>
+      <c r="D24" s="1">
+        <v>542100</v>
+      </c>
+      <c r="E24" s="1">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C25" s="1">
+        <v>210000</v>
+      </c>
+      <c r="D25" s="1">
+        <v>586600</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="1">
+        <v>220000</v>
+      </c>
+      <c r="D26" s="1">
+        <v>553800</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="1">
+        <v>230000</v>
+      </c>
+      <c r="D27" s="1">
+        <v>556200</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="1">
+        <v>240000</v>
+      </c>
+      <c r="D28" s="1">
+        <v>596000</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C29" s="1">
+        <v>250000</v>
+      </c>
+      <c r="D29" s="1">
+        <v>561200</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C30" s="1">
+        <v>260000</v>
+      </c>
+      <c r="D30" s="1">
+        <v>647000</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C31" s="1">
+        <v>270000</v>
+      </c>
+      <c r="D31" s="1">
+        <v>559700</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C32" s="1">
+        <v>280000</v>
+      </c>
+      <c r="D32" s="1">
+        <v>536700</v>
+      </c>
+      <c r="E32" s="1">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C33" s="1">
+        <v>290000</v>
+      </c>
+      <c r="D33" s="1">
+        <v>532200</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C34" s="1">
+        <v>300000</v>
+      </c>
+      <c r="D34" s="1">
+        <v>550200</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C35" s="1">
+        <v>310000</v>
+      </c>
+      <c r="D35" s="1">
+        <v>573000</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C36" s="1">
+        <v>320000</v>
+      </c>
+      <c r="D36" s="1">
+        <v>545200</v>
+      </c>
+      <c r="E36" s="1">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C37" s="1">
+        <v>330000</v>
+      </c>
+      <c r="D37" s="1">
+        <v>523300</v>
+      </c>
+      <c r="E37" s="1">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C38" s="1">
+        <v>340000</v>
+      </c>
+      <c r="D38" s="1">
+        <v>557100</v>
+      </c>
+      <c r="E38" s="1">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C39" s="1">
+        <v>350000</v>
+      </c>
+      <c r="D39" s="1">
+        <v>572200</v>
+      </c>
+      <c r="E39" s="1">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C40" s="1">
+        <v>360000</v>
+      </c>
+      <c r="D40" s="1">
+        <v>532100</v>
+      </c>
+      <c r="E40" s="1">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C41" s="1">
+        <v>370000</v>
+      </c>
+      <c r="D41" s="1">
+        <v>813600</v>
+      </c>
+      <c r="E41" s="1">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C42" s="1">
+        <v>380000</v>
+      </c>
+      <c r="D42" s="1">
+        <v>682000</v>
+      </c>
+      <c r="E42" s="1">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C43" s="1">
+        <v>390000</v>
+      </c>
+      <c r="D43" s="1">
+        <v>554400</v>
+      </c>
+      <c r="E43" s="1">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C44" s="1">
+        <v>400000</v>
+      </c>
+      <c r="D44" s="1">
+        <v>568000</v>
+      </c>
+      <c r="E44" s="1">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C45" s="1">
+        <v>410000</v>
+      </c>
+      <c r="D45" s="1">
+        <v>543600</v>
+      </c>
+      <c r="E45" s="1">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C46" s="1">
+        <v>420000</v>
+      </c>
+      <c r="D46" s="1">
+        <v>554600</v>
+      </c>
+      <c r="E46" s="1">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C47" s="1">
+        <v>430000</v>
+      </c>
+      <c r="D47" s="1">
+        <v>553400</v>
+      </c>
+      <c r="E47" s="1">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C48" s="1">
+        <v>440000</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1038800</v>
+      </c>
+      <c r="E48" s="1">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C49" s="1">
+        <v>450000</v>
+      </c>
+      <c r="D49" s="1">
+        <v>496600</v>
+      </c>
+      <c r="E49" s="1">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C50" s="1">
+        <v>460000</v>
+      </c>
+      <c r="D50" s="1">
+        <v>494500</v>
+      </c>
+      <c r="E50" s="1">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C51" s="1">
+        <v>470000</v>
+      </c>
+      <c r="D51" s="1">
+        <v>552600</v>
+      </c>
+      <c r="E51" s="1">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C52" s="1">
+        <v>480000</v>
+      </c>
+      <c r="D52" s="1">
+        <v>490600</v>
+      </c>
+      <c r="E52" s="1">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C53" s="1">
+        <v>490000</v>
+      </c>
+      <c r="D53" s="1">
+        <v>531700</v>
+      </c>
+      <c r="E53" s="1">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C54" s="1">
+        <v>500000</v>
+      </c>
+      <c r="D54" s="1">
+        <v>551400</v>
+      </c>
+      <c r="E54" s="1">
+        <v>2600</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:F54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>10000</v>
       </c>
-      <c r="D5">
+      <c r="B5" s="1">
         <v>1258100</v>
       </c>
+      <c r="C5" s="1">
+        <v>11200</v>
+      </c>
       <c r="E5">
-        <v>11200</v>
-      </c>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C6">
+        <f>B5*10^-6</f>
+        <v>1.2581</v>
+      </c>
+      <c r="F5">
+        <f>C5*10^-6</f>
+        <v>1.12E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>20000</v>
       </c>
-      <c r="D6">
+      <c r="B6" s="1">
         <v>581300</v>
       </c>
+      <c r="C6" s="1">
+        <v>2400</v>
+      </c>
       <c r="E6">
+        <f t="shared" ref="E6:E54" si="0">B6*10^-6</f>
+        <v>0.58129999999999993</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:F54" si="1">C6*10^-6</f>
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>30000</v>
+      </c>
+      <c r="B7" s="1">
+        <v>556100</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2300</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.55609999999999993</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>2.3E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>40000</v>
+      </c>
+      <c r="B8" s="1">
+        <v>533700</v>
+      </c>
+      <c r="C8" s="1">
         <v>2400</v>
       </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C7">
-        <v>30000</v>
-      </c>
-      <c r="D7">
-        <v>556100</v>
-      </c>
-      <c r="E7">
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0.53369999999999995</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>50000</v>
+      </c>
+      <c r="B9" s="1">
+        <v>541200</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2200</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.54120000000000001</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>2.1999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>60000</v>
+      </c>
+      <c r="B10" s="1">
+        <v>568000</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2100</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>2.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>70000</v>
+      </c>
+      <c r="B11" s="1">
+        <v>556300</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2200</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0.55630000000000002</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>2.1999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>80000</v>
+      </c>
+      <c r="B12" s="1">
+        <v>539000</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2400</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0.53899999999999992</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>90000</v>
+      </c>
+      <c r="B13" s="1">
+        <v>538700</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2400</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0.53869999999999996</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>100000</v>
+      </c>
+      <c r="B14" s="1">
+        <v>508100</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3600</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0.5081</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>3.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>110000</v>
+      </c>
+      <c r="B15" s="1">
+        <v>530900</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2600</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0.53089999999999993</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>120000</v>
+      </c>
+      <c r="B16" s="1">
+        <v>483200</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2500</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>0.48319999999999996</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>130000</v>
+      </c>
+      <c r="B17" s="1">
+        <v>623000</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2400</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>0.623</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>140000</v>
+      </c>
+      <c r="B18" s="1">
+        <v>554400</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2400</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>0.5544</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>150000</v>
+      </c>
+      <c r="B19" s="1">
+        <v>572600</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2500</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>0.5726</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>160000</v>
+      </c>
+      <c r="B20" s="1">
+        <v>529100</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2500</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>0.52910000000000001</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>170000</v>
+      </c>
+      <c r="B21" s="1">
+        <v>557100</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2500</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>0.55709999999999993</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>180000</v>
+      </c>
+      <c r="B22" s="1">
+        <v>533300</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2500</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>0.5333</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>190000</v>
+      </c>
+      <c r="B23" s="1">
+        <v>552500</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2900</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>0.55249999999999999</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>2.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>200000</v>
+      </c>
+      <c r="B24" s="1">
+        <v>542100</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3300</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>0.54210000000000003</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>3.3E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>210000</v>
+      </c>
+      <c r="B25" s="1">
+        <v>586600</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2700</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>0.58660000000000001</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>2.6999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>220000</v>
+      </c>
+      <c r="B26" s="1">
+        <v>553800</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2400</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>0.55379999999999996</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>230000</v>
+      </c>
+      <c r="B27" s="1">
+        <v>556200</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2400</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>0.55620000000000003</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>240000</v>
+      </c>
+      <c r="B28" s="1">
+        <v>596000</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2600</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>250000</v>
+      </c>
+      <c r="B29" s="1">
+        <v>561200</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2800</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>0.56119999999999992</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>2.8E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>260000</v>
+      </c>
+      <c r="B30" s="1">
+        <v>647000</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2800</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>2.8E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>270000</v>
+      </c>
+      <c r="B31" s="1">
+        <v>559700</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2400</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>0.55969999999999998</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>280000</v>
+      </c>
+      <c r="B32" s="1">
+        <v>536700</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2400</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>0.53669999999999995</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>290000</v>
+      </c>
+      <c r="B33" s="1">
+        <v>532200</v>
+      </c>
+      <c r="C33" s="1">
         <v>2300</v>
       </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C8">
-        <v>40000</v>
-      </c>
-      <c r="D8">
-        <v>533700</v>
-      </c>
-      <c r="E8">
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>0.53220000000000001</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>2.3E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>300000</v>
+      </c>
+      <c r="B34" s="1">
+        <v>550200</v>
+      </c>
+      <c r="C34" s="1">
         <v>2400</v>
       </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C9">
-        <v>50000</v>
-      </c>
-      <c r="D9">
-        <v>541200</v>
-      </c>
-      <c r="E9">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C10">
-        <v>60000</v>
-      </c>
-      <c r="D10">
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>0.55020000000000002</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>310000</v>
+      </c>
+      <c r="B35" s="1">
+        <v>573000</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2700</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>2.6999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>320000</v>
+      </c>
+      <c r="B36" s="1">
+        <v>545200</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2700</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>0.54520000000000002</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>2.6999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>330000</v>
+      </c>
+      <c r="B37" s="1">
+        <v>523300</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2500</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>0.52329999999999999</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>340000</v>
+      </c>
+      <c r="B38" s="1">
+        <v>557100</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2500</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>0.55709999999999993</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>350000</v>
+      </c>
+      <c r="B39" s="1">
+        <v>572200</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2400</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>0.57219999999999993</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>360000</v>
+      </c>
+      <c r="B40" s="1">
+        <v>532100</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2600</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>0.53210000000000002</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>370000</v>
+      </c>
+      <c r="B41" s="1">
+        <v>813600</v>
+      </c>
+      <c r="C41" s="1">
+        <v>4100</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>0.81359999999999999</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>4.0999999999999995E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>380000</v>
+      </c>
+      <c r="B42" s="1">
+        <v>682000</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2800</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>0.68199999999999994</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="1"/>
+        <v>2.8E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>390000</v>
+      </c>
+      <c r="B43" s="1">
+        <v>554400</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2800</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>0.5544</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>2.8E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>400000</v>
+      </c>
+      <c r="B44" s="1">
         <v>568000</v>
       </c>
-      <c r="E10">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C11">
-        <v>70000</v>
-      </c>
-      <c r="D11">
-        <v>556300</v>
-      </c>
-      <c r="E11">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C12">
-        <v>80000</v>
-      </c>
-      <c r="D12">
-        <v>539000</v>
-      </c>
-      <c r="E12">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C13">
-        <v>90000</v>
-      </c>
-      <c r="D13">
-        <v>538700</v>
-      </c>
-      <c r="E13">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C14">
-        <v>100000</v>
-      </c>
-      <c r="D14">
-        <v>508100</v>
-      </c>
-      <c r="E14">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C15">
-        <v>110000</v>
-      </c>
-      <c r="D15">
-        <v>530900</v>
-      </c>
-      <c r="E15">
+      <c r="C44" s="1">
+        <v>2700</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>2.6999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>410000</v>
+      </c>
+      <c r="B45" s="1">
+        <v>543600</v>
+      </c>
+      <c r="C45" s="1">
+        <v>2800</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>0.54359999999999997</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>2.8E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>420000</v>
+      </c>
+      <c r="B46" s="1">
+        <v>554600</v>
+      </c>
+      <c r="C46" s="1">
+        <v>3100</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>0.55459999999999998</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="1"/>
+        <v>3.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>430000</v>
+      </c>
+      <c r="B47" s="1">
+        <v>553400</v>
+      </c>
+      <c r="C47" s="1">
+        <v>2900</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>0.5534</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="1"/>
+        <v>2.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>440000</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1038800</v>
+      </c>
+      <c r="C48" s="1">
+        <v>2700</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>1.0387999999999999</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="1"/>
+        <v>2.6999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>450000</v>
+      </c>
+      <c r="B49" s="1">
+        <v>496600</v>
+      </c>
+      <c r="C49" s="1">
+        <v>3100</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>0.49659999999999999</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="1"/>
+        <v>3.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>460000</v>
+      </c>
+      <c r="B50" s="1">
+        <v>494500</v>
+      </c>
+      <c r="C50" s="1">
         <v>2600</v>
       </c>
-    </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C16">
-        <v>120000</v>
-      </c>
-      <c r="D16">
-        <v>483200</v>
-      </c>
-      <c r="E16">
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>0.4945</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>470000</v>
+      </c>
+      <c r="B51" s="1">
+        <v>552600</v>
+      </c>
+      <c r="C51" s="1">
+        <v>2800</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>0.55259999999999998</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="1"/>
+        <v>2.8E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>480000</v>
+      </c>
+      <c r="B52" s="1">
+        <v>490600</v>
+      </c>
+      <c r="C52" s="1">
+        <v>2600</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>0.49059999999999998</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>490000</v>
+      </c>
+      <c r="B53" s="1">
+        <v>531700</v>
+      </c>
+      <c r="C53" s="1">
         <v>2500</v>
       </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17">
-        <v>130000</v>
-      </c>
-      <c r="D17">
-        <v>623000</v>
-      </c>
-      <c r="E17">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18">
-        <v>140000</v>
-      </c>
-      <c r="D18">
-        <v>554400</v>
-      </c>
-      <c r="E18">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19">
-        <v>150000</v>
-      </c>
-      <c r="D19">
-        <v>572600</v>
-      </c>
-      <c r="E19">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C20">
-        <v>160000</v>
-      </c>
-      <c r="D20">
-        <v>529100</v>
-      </c>
-      <c r="E20">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21">
-        <v>170000</v>
-      </c>
-      <c r="D21">
-        <v>557100</v>
-      </c>
-      <c r="E21">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C22">
-        <v>180000</v>
-      </c>
-      <c r="D22">
-        <v>533300</v>
-      </c>
-      <c r="E22">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C23">
-        <v>190000</v>
-      </c>
-      <c r="D23">
-        <v>552500</v>
-      </c>
-      <c r="E23">
-        <v>2900</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C24">
-        <v>200000</v>
-      </c>
-      <c r="D24">
-        <v>542100</v>
-      </c>
-      <c r="E24">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C25">
-        <v>210000</v>
-      </c>
-      <c r="D25">
-        <v>586600</v>
-      </c>
-      <c r="E25">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C26">
-        <v>220000</v>
-      </c>
-      <c r="D26">
-        <v>553800</v>
-      </c>
-      <c r="E26">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C27">
-        <v>230000</v>
-      </c>
-      <c r="D27">
-        <v>556200</v>
-      </c>
-      <c r="E27">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C28">
-        <v>240000</v>
-      </c>
-      <c r="D28">
-        <v>596000</v>
-      </c>
-      <c r="E28">
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>0.53169999999999995</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>500000</v>
+      </c>
+      <c r="B54" s="1">
+        <v>551400</v>
+      </c>
+      <c r="C54" s="1">
         <v>2600</v>
       </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C29">
-        <v>250000</v>
-      </c>
-      <c r="D29">
-        <v>561200</v>
-      </c>
-      <c r="E29">
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C30">
-        <v>260000</v>
-      </c>
-      <c r="D30">
-        <v>647000</v>
-      </c>
-      <c r="E30">
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C31">
-        <v>270000</v>
-      </c>
-      <c r="D31">
-        <v>559700</v>
-      </c>
-      <c r="E31">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C32">
-        <v>280000</v>
-      </c>
-      <c r="D32">
-        <v>536700</v>
-      </c>
-      <c r="E32">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C33">
-        <v>290000</v>
-      </c>
-      <c r="D33">
-        <v>532200</v>
-      </c>
-      <c r="E33">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C34">
-        <v>300000</v>
-      </c>
-      <c r="D34">
-        <v>550200</v>
-      </c>
-      <c r="E34">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C35">
-        <v>310000</v>
-      </c>
-      <c r="D35">
-        <v>573000</v>
-      </c>
-      <c r="E35">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C36">
-        <v>320000</v>
-      </c>
-      <c r="D36">
-        <v>545200</v>
-      </c>
-      <c r="E36">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C37">
-        <v>330000</v>
-      </c>
-      <c r="D37">
-        <v>523300</v>
-      </c>
-      <c r="E37">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C38">
-        <v>340000</v>
-      </c>
-      <c r="D38">
-        <v>557100</v>
-      </c>
-      <c r="E38">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C39">
-        <v>350000</v>
-      </c>
-      <c r="D39">
-        <v>572200</v>
-      </c>
-      <c r="E39">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C40">
-        <v>360000</v>
-      </c>
-      <c r="D40">
-        <v>532100</v>
-      </c>
-      <c r="E40">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C41">
-        <v>370000</v>
-      </c>
-      <c r="D41">
-        <v>813600</v>
-      </c>
-      <c r="E41">
-        <v>4100</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C42">
-        <v>380000</v>
-      </c>
-      <c r="D42">
-        <v>682000</v>
-      </c>
-      <c r="E42">
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C43">
-        <v>390000</v>
-      </c>
-      <c r="D43">
-        <v>554400</v>
-      </c>
-      <c r="E43">
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C44">
-        <v>400000</v>
-      </c>
-      <c r="D44">
-        <v>568000</v>
-      </c>
-      <c r="E44">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C45">
-        <v>410000</v>
-      </c>
-      <c r="D45">
-        <v>543600</v>
-      </c>
-      <c r="E45">
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C46">
-        <v>420000</v>
-      </c>
-      <c r="D46">
-        <v>554600</v>
-      </c>
-      <c r="E46">
-        <v>3100</v>
-      </c>
-    </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C47">
-        <v>430000</v>
-      </c>
-      <c r="D47">
-        <v>553400</v>
-      </c>
-      <c r="E47">
-        <v>2900</v>
-      </c>
-    </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C48">
-        <v>440000</v>
-      </c>
-      <c r="D48">
-        <v>1038800</v>
-      </c>
-      <c r="E48">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C49">
-        <v>450000</v>
-      </c>
-      <c r="D49">
-        <v>496600</v>
-      </c>
-      <c r="E49">
-        <v>3100</v>
-      </c>
-    </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C50">
-        <v>460000</v>
-      </c>
-      <c r="D50">
-        <v>494500</v>
-      </c>
-      <c r="E50">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C51">
-        <v>470000</v>
-      </c>
-      <c r="D51">
-        <v>552600</v>
-      </c>
-      <c r="E51">
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C52">
-        <v>480000</v>
-      </c>
-      <c r="D52">
-        <v>490600</v>
-      </c>
-      <c r="E52">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C53">
-        <v>490000</v>
-      </c>
-      <c r="D53">
-        <v>531700</v>
-      </c>
-      <c r="E53">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C54">
-        <v>500000</v>
-      </c>
-      <c r="D54">
-        <v>551400</v>
-      </c>
       <c r="E54">
-        <v>2600</v>
+        <f t="shared" si="0"/>
+        <v>0.5514</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>